--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -119,7 +119,7 @@
     <t xml:space="preserve">sendKeys</t>
   </si>
   <si>
-    <t xml:space="preserve">AAAAAAExample</t>
+    <t xml:space="preserve">AABHIExample</t>
   </si>
   <si>
     <t xml:space="preserve">select title</t>
@@ -566,8 +566,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="create_contact_form" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="edit_form" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -240,6 +241,57 @@
   </si>
   <si>
     <t xml:space="preserve">//span[normalize-space()='Save']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click edit form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//button[@class='mat-focus-indicator contacts-list__buttons__create_contact mr-3 mat-stroked-button mat-button-base mat-primary ng-star-inserted'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[@class='mat-focus-indicator mat-raised-button mat-button-base mat-primary ng-star-inserted']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[normalize-space()='Preview your form here']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch to new tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[2]/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstNamePublish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[3]/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastNamePublish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[4]/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select are you a realtor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[5]/div/div[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@data-value='No']</t>
   </si>
 </sst>
 </file>
@@ -451,11 +503,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0592592592593"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.9666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.137037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.3333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,18 +619,18 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="92.5074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7185185185185"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5777777777778"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.8592592592593"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.1925925925926"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,4 +1003,276 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36296296296296"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1" display="abc@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t xml:space="preserve">//span[normalize-space()='Save']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[normalize-space()='LDS']</t>
   </si>
   <si>
     <t xml:space="preserve">click edit form</t>
@@ -503,12 +506,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.9666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6703703703704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.137037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.3333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1185185185185"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.3148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,12 +628,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5777777777778"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.8592592592593"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.262962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="97.3074074074074"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3074074074074"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,15 +1016,15 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4074074074074"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>20</v>
@@ -1095,13 +1098,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>20</v>
@@ -1112,13 +1115,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>20</v>
@@ -1129,13 +1132,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>20</v>
@@ -1146,13 +1149,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>20</v>
@@ -1163,13 +1166,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>20</v>
@@ -1180,16 +1183,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>6</v>
@@ -1203,13 +1206,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,13 +1223,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,30 +1240,30 @@
         <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="create_contact_form" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="edit_form" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="allocation" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="119">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -93,18 +94,21 @@
     <t xml:space="preserve">//img[@class="img-responsive ng-scope ng-isolate-scope"]</t>
   </si>
   <si>
+    <t xml:space="preserve">waiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
     <t xml:space="preserve">click LEADS</t>
   </si>
   <si>
     <t xml:space="preserve">//div[normalize-space()='LEADS']</t>
   </si>
   <si>
-    <t xml:space="preserve">waiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait</t>
-  </si>
-  <si>
     <t xml:space="preserve">get contact page</t>
   </si>
   <si>
@@ -243,9 +247,6 @@
     <t xml:space="preserve">//span[normalize-space()='Save']</t>
   </si>
   <si>
-    <t xml:space="preserve">//div[normalize-space()='LDS']</t>
-  </si>
-  <si>
     <t xml:space="preserve">click edit form</t>
   </si>
   <si>
@@ -295,6 +296,90 @@
   </si>
   <si>
     <t xml:space="preserve">//div[@data-value='No']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click SALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[normalize-space()='SALES']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click Sales Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[normalize-space()='Sales Grid']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click available home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@style='color: rgb(255, 255, 255);'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click allocate unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[normalize-space()='ALLOCATE UNIT']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter realtor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@data-placeholder='Select a Realtor']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select a realtor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//span[@class='mat-option-text'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on select a puchaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@placeholder='Select a Purchaser']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add new purchaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[normalize-space()='Add New Purchaser']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter first name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@data-placeholder='First name']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PurchaserExample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@data-placeholder='Last name']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@data-placeholder='Email']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hgt@rty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click add purchaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//span[normalize-space()='Add Purchaser'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click no time restriction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[@class='mat-checkbox-inner-container']</t>
   </si>
 </sst>
 </file>
@@ -395,7 +480,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -418,6 +503,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -500,18 +589,18 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1185185185185"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9851851851852"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.3148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2185185185185"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.0222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.2740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.4703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,18 +711,18 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.262962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="97.3074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.537037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.307407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,31 +764,31 @@
       <c r="A3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>18</v>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>6</v>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>6</v>
@@ -707,13 +796,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>20</v>
@@ -724,84 +813,84 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9876543210</v>
@@ -809,16 +898,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1234</v>
@@ -832,61 +921,61 @@
         <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>6</v>
@@ -894,33 +983,33 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>202</v>
@@ -928,64 +1017,64 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>20</v>
@@ -1015,16 +1104,16 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.262962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,13 +1153,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>20</v>
@@ -1081,16 +1170,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>6</v>
@@ -1200,7 +1289,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>18</v>
@@ -1209,7 +1298,7 @@
         <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>83</v>
@@ -1217,7 +1306,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>18</v>
@@ -1226,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>85</v>
@@ -1260,7 +1349,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>90</v>
@@ -1278,4 +1367,327 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.7814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52592592592593"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1" display="hgt@rty.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="119">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -100,202 +100,202 @@
     <t xml:space="preserve">wait</t>
   </si>
   <si>
+    <t xml:space="preserve">click LEADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[normalize-space()='LEADS']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get contact page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[@class='mat-focus-indicator contacts-list__buttons__create_contact mat-stroked-button mat-button-base mat-primary']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter first name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//form[@class='pt-2 ng-untouched ng-pristine ng-invalid']/div[3]/div/mat-form-field/div/div/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sendKeys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AABHIExample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[@class="mat-select-placeholder mat-select-min-line ng-tns-c51-23 ng-star-inserted"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mat select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[normalize-space()='Mrs.']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter middle name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@data-placeholder='Middle name (Optional)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MiddleNameExample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//form[@class='pt-2 ng-invalid ng-dirty ng-touched']/div[5]/div/mat-form-field/div/div/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastNameExample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//form[@class='pt-2 ng-invalid ng-dirty ng-touched']/div[6]/div/mat-form-field/div/div/div/input)[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//form[@class='pt-2 ng-invalid ng-dirty ng-touched']/div[6]/div/mat-form-field/div/div/div/input)[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//form[@class='pt-2 ng-invalid ng-dirty ng-touched']/div[7]/div/mat-form-field/div/div/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xyz@abc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter contact preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[@class='mat-select-placeholder mat-select-min-line ng-tns-c51-31 ng-star-inserted']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[normalize-space()='Email']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[@class='mat-select-placeholder mat-select-min-line ng-tns-c51-33 ng-star-inserted']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[normalize-space()='Canada']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scroll to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@class='mat-input-element mat-form-field-autofill-control ng-tns-c28-36 ng-untouched ng-pristine ng-valid cdk-text-field-autofill-monitored']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[@class='mat-select-placeholder mat-select-min-line ng-tns-c51-41 ng-star-inserted']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[normalize-space()='British Columbia']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@data-placeholder='Unit']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@data-placeholder='Street number and Street name']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4295 grange st burnaby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter postal code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@data-placeholder='Zip/Postal code']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v5h4a9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[normalize-space()='Save']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click edit form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//button[@class='mat-focus-indicator contacts-list__buttons__create_contact mr-3 mat-stroked-button mat-button-base mat-primary ng-star-inserted'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[@class='mat-focus-indicator mat-raised-button mat-button-base mat-primary ng-star-inserted']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[normalize-space()='Preview your form here']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch to new tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[2]/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstNamePublish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[3]/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastNamePublish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[4]/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select are you a realtor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[5]/div/div[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@data-value='No']</t>
+  </si>
+  <si>
     <t xml:space="preserve">w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click LEADS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//div[normalize-space()='LEADS']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get contact page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//button[@class='mat-focus-indicator contacts-list__buttons__create_contact mat-stroked-button mat-button-base mat-primary']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter first name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//form[@class='pt-2 ng-untouched ng-pristine ng-invalid']/div[3]/div/mat-form-field/div/div/div/input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendKeys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AABHIExample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[@class="mat-select-placeholder mat-select-min-line ng-tns-c51-23 ng-star-inserted"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mat select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[normalize-space()='Mrs.']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter middle name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//input[@data-placeholder='Middle name (Optional)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MiddleNameExample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//form[@class='pt-2 ng-invalid ng-dirty ng-touched']/div[5]/div/mat-form-field/div/div/div/input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LastNameExample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//form[@class='pt-2 ng-invalid ng-dirty ng-touched']/div[6]/div/mat-form-field/div/div/div/input)[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//form[@class='pt-2 ng-invalid ng-dirty ng-touched']/div[6]/div/mat-form-field/div/div/div/input)[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//form[@class='pt-2 ng-invalid ng-dirty ng-touched']/div[7]/div/mat-form-field/div/div/div/input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xyz@abc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter contact preference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[@class='mat-select-placeholder mat-select-min-line ng-tns-c51-31 ng-star-inserted']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[normalize-space()='Email']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[@class='mat-select-placeholder mat-select-min-line ng-tns-c51-33 ng-star-inserted']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[normalize-space()='Canada']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scroll to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//input[@class='mat-input-element mat-form-field-autofill-control ng-tns-c28-36 ng-untouched ng-pristine ng-valid cdk-text-field-autofill-monitored']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[@class='mat-select-placeholder mat-select-min-line ng-tns-c51-41 ng-star-inserted']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[normalize-space()='British Columbia']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//input[@data-placeholder='Unit']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//input[@data-placeholder='Street number and Street name']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4295 grange st burnaby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British Columbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter postal code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//input[@data-placeholder='Zip/Postal code']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v5h4a9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click Save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[normalize-space()='Save']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click edit form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//button[@class='mat-focus-indicator contacts-list__buttons__create_contact mr-3 mat-stroked-button mat-button-base mat-primary ng-star-inserted'])[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//button[@class='mat-focus-indicator mat-raised-button mat-button-base mat-primary ng-star-inserted']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click preview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//div[normalize-space()='Preview your form here']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switch to new tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//div[@ref='component'])[2]/div/input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstNamePublish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//div[@ref='component'])[3]/div/input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LastNamePublish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//div[@ref='component'])[4]/div/input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select are you a realtor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//div[@ref='component'])[5]/div/div[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//div[@data-value='No']</t>
   </si>
   <si>
     <t xml:space="preserve">click SALES</t>
@@ -505,7 +505,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -711,8 +711,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -773,19 +773,19 @@
       <c r="D3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
+      <c r="E3" s="6" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>20</v>
@@ -796,13 +796,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>20</v>
@@ -813,84 +813,84 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9876543210</v>
@@ -898,16 +898,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D11" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1234</v>
@@ -921,61 +921,61 @@
         <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>6</v>
@@ -983,33 +983,33 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>202</v>
@@ -1017,64 +1017,64 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>20</v>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>20</v>
@@ -1187,13 +1187,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>75</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>20</v>
@@ -1204,13 +1204,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>20</v>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>20</v>
@@ -1238,13 +1238,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>77</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>20</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>20</v>
@@ -1272,16 +1272,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>6</v>
@@ -1289,36 +1289,36 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,30 +1329,30 @@
         <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1437,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,7 +1519,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>101</v>
@@ -1587,7 +1587,7 @@
         <v>109</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>110</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>18</v>
@@ -1604,7 +1604,7 @@
         <v>111</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>112</v>
@@ -1621,7 +1621,7 @@
         <v>113</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>114</v>
@@ -1658,7 +1658,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="118">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t xml:space="preserve">//div[@data-value='No']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w</t>
   </si>
   <si>
     <t xml:space="preserve">click SALES</t>
@@ -480,7 +477,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -503,10 +500,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -595,12 +588,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.0222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.2740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5555555555556"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.4703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.4481481481482"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.6444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,18 +704,18 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.537037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.307407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="104.951851851852"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.0740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,7 +766,7 @@
       <c r="D3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="0" t="n">
         <v>3000</v>
       </c>
     </row>
@@ -1110,10 +1103,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.262962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.9481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,16 +1369,16 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.52592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.7814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.9592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,19 +1429,19 @@
       <c r="D3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>90</v>
+      <c r="E3" s="0" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>20</v>
@@ -1459,13 +1452,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>20</v>
@@ -1476,13 +1469,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>20</v>
@@ -1493,13 +1486,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>20</v>
@@ -1510,30 +1503,30 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>20</v>
@@ -1544,13 +1537,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>20</v>
@@ -1561,13 +1554,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>20</v>
@@ -1578,19 +1571,19 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,13 +1594,13 @@
         <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,24 +1611,24 @@
         <v>18</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>20</v>
@@ -1657,19 +1650,19 @@
       <c r="D16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>90</v>
+      <c r="E16" s="0" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>20</v>

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="116">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -371,12 +371,6 @@
   </si>
   <si>
     <t xml:space="preserve">(//span[normalize-space()='Add Purchaser'])[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click no time restriction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[@class='mat-checkbox-inner-container']</t>
   </si>
 </sst>
 </file>
@@ -583,7 +577,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="16:16 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -705,7 +699,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="16:16 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1098,7 +1092,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="16:16 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1367,10 +1361,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="16:16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1654,23 +1648,6 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E14" r:id="rId1" display="hgt@rty.com"/>

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="116">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -577,17 +577,17 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="16:16 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="A3:E3 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.4481481481482"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.337037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.6444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5925925925926"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.7222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,18 +698,18 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="16:16 D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="104.951851851852"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.596296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3666666666667"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,16 +1091,16 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="16:16 A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.537037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.5703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,33 +1140,33 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>6</v>
@@ -1363,16 +1363,16 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="16:16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="A3:E3 A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.9592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId2"/>
@@ -576,18 +576,18 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="A3:E3 E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5925925925926"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.7222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.7037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.9074074074074"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.9"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>17</v>
       </c>
@@ -699,17 +699,17 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:E3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.596296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="110.340740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,16 +1091,16 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.537037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.5703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.6481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,15 +1364,15 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="A3:E3 A16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="140">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -244,12 +244,21 @@
     <t xml:space="preserve">//span[normalize-space()='Save']</t>
   </si>
   <si>
+    <t xml:space="preserve">wait for LEADS</t>
+  </si>
+  <si>
     <t xml:space="preserve">click edit form</t>
   </si>
   <si>
     <t xml:space="preserve">(//button[@class='mat-focus-indicator contacts-list__buttons__create_contact mr-3 mat-stroked-button mat-button-base mat-primary ng-star-inserted'])[2]</t>
   </si>
   <si>
+    <t xml:space="preserve">clicl Layouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[normalize-space()='Layouts']</t>
+  </si>
+  <si>
     <t xml:space="preserve">click next</t>
   </si>
   <si>
@@ -293,6 +302,69 @@
   </si>
   <si>
     <t xml:space="preserve">//div[@data-value='No']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select are you working with a realtor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[7]/div/div[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[8]/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter how did you hear about us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[9]/div/div[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mat select </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@data-value='Realtor']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click terms &amp; conditions checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@type='checkbox']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter street address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[11]/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[12]/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[13]/div/div[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter state/province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[14]/div/div[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter postal/zip code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@ref='component'])[15]/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[normalize-space()='Submit']</t>
   </si>
   <si>
     <t xml:space="preserve">click SALES</t>
@@ -577,17 +649,17 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="A3:E3 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5925925925926"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.7222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.337037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.1518518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.5703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.3481481481482"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.1925925925926"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,17 +771,17 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:E3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.596296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.9666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="116.025925925926"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,18 +1161,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.537037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.5703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,47 +1212,47 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>3000</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>20</v>
@@ -1191,13 +1263,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>20</v>
@@ -1208,13 +1280,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>20</v>
@@ -1225,13 +1297,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>20</v>
@@ -1242,13 +1314,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>20</v>
@@ -1259,16 +1331,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>6</v>
@@ -1276,75 +1348,313 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>89</v>
+      <c r="E17" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>98765</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>78989</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" display="abc@gmail.com"/>
+    <hyperlink ref="E16" r:id="rId1" display="abc@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1364,15 +1674,15 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="A3:E3 A16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,13 +1739,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>20</v>
@@ -1446,13 +1756,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>20</v>
@@ -1463,13 +1773,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>20</v>
@@ -1480,13 +1790,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>20</v>
@@ -1497,30 +1807,30 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>20</v>
@@ -1531,13 +1841,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>20</v>
@@ -1548,13 +1858,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>20</v>
@@ -1565,19 +1875,19 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,13 +1898,13 @@
         <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,24 +1915,24 @@
         <v>18</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>20</v>

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\NEW\KeywordDrivenFramework\src\main\java\com\qa\hs\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B553AF01-1DC8-4EED-9D26-8D624D9110A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF80AAC8-5B86-468E-AA28-F7FD29A8EE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="142">
   <si>
     <t>test step</t>
   </si>
@@ -336,15 +336,9 @@
     <t>(//div[@ref='component'])[11]/div/input</t>
   </si>
   <si>
-    <t>example address</t>
-  </si>
-  <si>
     <t>(//div[@ref='component'])[12]/div/input</t>
   </si>
   <si>
-    <t>hji</t>
-  </si>
-  <si>
     <t>(//div[@ref='component'])[13]/div/div[1]</t>
   </si>
   <si>
@@ -451,6 +445,15 @@
   </si>
   <si>
     <t>Alish</t>
+  </si>
+  <si>
+    <t>Burnaby</t>
+  </si>
+  <si>
+    <t>202- 4275 Grange St</t>
+  </si>
+  <si>
+    <t>V5H 4A9</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1429,7 +1432,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1676,7 +1679,7 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1693,7 +1696,7 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1744,7 +1747,7 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1812,7 +1815,7 @@
         <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1823,13 +1826,13 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1840,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -1851,13 +1854,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -1868,30 +1871,30 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26">
-        <v>78989</v>
+      <c r="E26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -1934,7 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -2000,13 +2003,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -2017,13 +2020,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -2034,13 +2037,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -2051,13 +2054,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -2068,30 +2071,30 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -2102,13 +2105,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -2119,13 +2122,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -2136,19 +2139,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -2159,13 +2162,13 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2176,24 +2179,24 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="139">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">click available home</t>
   </si>
   <si>
-    <t xml:space="preserve">(//div[@style='color: rgb(255, 255, 255);'])[1]</t>
+    <t xml:space="preserve">(//div[@status='Available'])[1]</t>
   </si>
   <si>
     <t xml:space="preserve">click allocate unit</t>
@@ -412,52 +412,34 @@
     <t xml:space="preserve">(//span[@class='mat-option-text'])[2]</t>
   </si>
   <si>
-    <t xml:space="preserve">click on select a puchaser</t>
+    <t xml:space="preserve">enter purchaser</t>
   </si>
   <si>
     <t xml:space="preserve">//input[@placeholder='Select a Purchaser']</t>
   </si>
   <si>
-    <t xml:space="preserve">click on add new purchaser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[normalize-space()='Add New Purchaser']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter first name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">//input[@data-placeholder='First name']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PurchaserExample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//input[@data-placeholder='Last name']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lastName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//input[@data-placeholder='Email']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tghyu@sdf.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click add purchaser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//span[normalize-space()='Add Purchaser'])[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[@class='mat-checkbox-inner-container']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click No time restriction checkbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[normalize-space()='SUBMIT']</t>
+    <t xml:space="preserve">select a purchaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@formcontrolname='hour']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//span[normalize-space()='SUBMIT'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click jse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[normalize-space()='Continue']</t>
   </si>
 </sst>
 </file>
@@ -669,12 +651,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.2185185185185"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.5259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4555555555556"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.6222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.1703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.3148148148148"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,12 +773,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="118.962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2185185185185"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="125.137037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,10 +1183,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.7814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,18 +1685,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.6037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.937037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1820,7 +1802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>120</v>
       </c>
@@ -1888,7 +1870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>129</v>
       </c>
@@ -1899,13 +1881,13 @@
         <v>130</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>131</v>
       </c>
@@ -1913,78 +1895,78 @@
         <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="E12" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>139</v>
+        <v>26</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>6</v>
@@ -1992,76 +1974,39 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" display="tghyu@sdf.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\NEW\KeywordDrivenFramework\src\main\java\com\qa\hs\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF80AAC8-5B86-468E-AA28-F7FD29A8EE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71170E23-7B7C-41D5-A342-F8B6F7B9C16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="145">
   <si>
     <t>test step</t>
   </si>
@@ -99,6 +99,12 @@
     <t>//img[@class="img-responsive ng-scope ng-isolate-scope"]</t>
   </si>
   <si>
+    <t>wait for LEADS</t>
+  </si>
+  <si>
+    <t>//div[normalize-space()='LEADS']</t>
+  </si>
+  <si>
     <t>waiting</t>
   </si>
   <si>
@@ -108,9 +114,6 @@
     <t>click LEADS</t>
   </si>
   <si>
-    <t>//div[normalize-space()='LEADS']</t>
-  </si>
-  <si>
     <t>get contact page</t>
   </si>
   <si>
@@ -249,9 +252,6 @@
     <t>//span[normalize-space()='Save']</t>
   </si>
   <si>
-    <t>wait for LEADS</t>
-  </si>
-  <si>
     <t>click edit form</t>
   </si>
   <si>
@@ -285,9 +285,15 @@
     <t>(//div[@ref='component'])[2]/div/input</t>
   </si>
   <si>
+    <t>AbhilashAutomation</t>
+  </si>
+  <si>
     <t>(//div[@ref='component'])[3]/div/input</t>
   </si>
   <si>
+    <t>Alish</t>
+  </si>
+  <si>
     <t>(//div[@ref='component'])[4]/div/input</t>
   </si>
   <si>
@@ -309,6 +315,9 @@
     <t>(//div[@ref='component'])[7]/div/div[1]</t>
   </si>
   <si>
+    <t>(//div[@data-value='No'])[3]</t>
+  </si>
+  <si>
     <t>(//div[@ref='component'])[8]/div/input</t>
   </si>
   <si>
@@ -336,9 +345,15 @@
     <t>(//div[@ref='component'])[11]/div/input</t>
   </si>
   <si>
+    <t>example address</t>
+  </si>
+  <si>
     <t>(//div[@ref='component'])[12]/div/input</t>
   </si>
   <si>
+    <t>hji</t>
+  </si>
+  <si>
     <t>(//div[@ref='component'])[13]/div/div[1]</t>
   </si>
   <si>
@@ -360,6 +375,9 @@
     <t>//button[normalize-space()='Submit']</t>
   </si>
   <si>
+    <t>//div[normalize-space()='SALES']</t>
+  </si>
+  <si>
     <t>click SALES</t>
   </si>
   <si>
@@ -429,31 +447,22 @@
     <t>//input[@data-placeholder='Email']</t>
   </si>
   <si>
-    <t>hgt@rty.com</t>
-  </si>
-  <si>
     <t>click add purchaser</t>
   </si>
   <si>
     <t>(//span[normalize-space()='Add Purchaser'])[2]</t>
   </si>
   <si>
-    <t>(//div[@data-value='No'])[3]</t>
-  </si>
-  <si>
-    <t>AbhilashAutomation</t>
-  </si>
-  <si>
-    <t>Alish</t>
-  </si>
-  <si>
-    <t>Burnaby</t>
-  </si>
-  <si>
-    <t>202- 4275 Grange St</t>
-  </si>
-  <si>
-    <t>V5H 4A9</t>
+    <t>//span[@class='mat-checkbox-inner-container']</t>
+  </si>
+  <si>
+    <t>click No time restriction checkbox</t>
+  </si>
+  <si>
+    <t>//span[normalize-space()='SUBMIT']</t>
+  </si>
+  <si>
+    <t>Ayutu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -517,10 +526,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -913,12 +922,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.4140625"/>
-    <col min="2" max="2" width="37.33203125"/>
-    <col min="3" max="3" width="51.1640625"/>
-    <col min="4" max="4" width="35.58203125"/>
-    <col min="5" max="5" width="51.33203125"/>
-    <col min="6" max="1025" width="10.1640625"/>
+    <col min="1" max="1" width="38.33203125"/>
+    <col min="2" max="2" width="38.25"/>
+    <col min="3" max="3" width="52.5"/>
+    <col min="4" max="4" width="36.4140625"/>
+    <col min="5" max="5" width="52.58203125"/>
+    <col min="6" max="1025" width="10.4140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -968,7 +977,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -979,13 +988,13 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -996,7 +1005,7 @@
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
@@ -1025,18 +1034,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31"/>
-    <col min="2" max="2" width="20.6640625"/>
-    <col min="3" max="3" width="116"/>
-    <col min="4" max="4" width="16.83203125"/>
-    <col min="5" max="5" width="19.1640625"/>
-    <col min="6" max="1025" width="8.58203125"/>
+    <col min="1" max="1" width="31.75"/>
+    <col min="2" max="2" width="21.1640625"/>
+    <col min="3" max="3" width="119"/>
+    <col min="4" max="4" width="17.1640625"/>
+    <col min="5" max="5" width="19.6640625"/>
+    <col min="6" max="1025" width="8.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1076,13 +1085,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1093,16 +1102,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>10000</v>
@@ -1110,13 +1119,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1127,13 +1136,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1144,84 +1153,84 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>9876543210</v>
@@ -1229,16 +1238,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>1234</v>
@@ -1252,61 +1261,61 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
         <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -1314,33 +1323,33 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>202</v>
@@ -1348,64 +1357,64 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1432,15 +1441,15 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5"/>
-    <col min="2" max="2" width="14"/>
-    <col min="3" max="3" width="43.6640625"/>
-    <col min="4" max="1025" width="9.83203125"/>
+    <col min="1" max="1" width="30.1640625"/>
+    <col min="2" max="2" width="14.33203125"/>
+    <col min="3" max="3" width="44.75"/>
+    <col min="4" max="1025" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1480,13 +1489,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1497,16 +1506,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>10000</v>
@@ -1514,13 +1523,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1667,7 +1676,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1676,27 +1685,27 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1707,61 +1716,61 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>98765</v>
@@ -1769,30 +1778,30 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1803,98 +1812,98 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>141</v>
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>78989</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -1905,16 +1914,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>3000</v>
@@ -1935,18 +1944,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625"/>
-    <col min="2" max="2" width="9.4140625"/>
-    <col min="3" max="3" width="50.75"/>
-    <col min="4" max="1025" width="9.4140625"/>
+    <col min="1" max="1" width="20.1640625"/>
+    <col min="2" max="2" width="9.58203125"/>
+    <col min="3" max="3" width="51.9140625"/>
+    <col min="4" max="1025" width="9.58203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1989,44 +1998,44 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>6000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -2037,13 +2046,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -2054,13 +2063,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -2071,47 +2080,47 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -2122,13 +2131,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -2139,92 +2148,177 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\NEW\KeywordDrivenFramework\src\main\java\com\qa\hs\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541EA132-E6D1-4C3B-AE4B-1F38CB662255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35589613-CD52-4F5F-81AB-B42F2722EA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="141">
   <si>
     <t>test step</t>
   </si>
@@ -445,6 +445,12 @@
   </si>
   <si>
     <t>//button[normalize-space()='Continue']</t>
+  </si>
+  <si>
+    <t>//div[normalize-space()='Your submission has been received.']</t>
+  </si>
+  <si>
+    <t>wait for Success message</t>
   </si>
 </sst>
 </file>
@@ -503,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,6 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1419,18 +1426,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.75"/>
     <col min="2" max="2" width="14.9140625"/>
-    <col min="3" max="3" width="47.1640625"/>
-    <col min="4" max="1025" width="10.4140625"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="1025" width="10.4140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1753,8 +1762,8 @@
       <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="E19">
-        <v>98765</v>
+      <c r="E19" s="6">
+        <v>4379821234</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1912,18 +1921,35 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>3000</v>
       </c>
     </row>

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="144">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -456,12 +456,6 @@
   </si>
   <si>
     <t xml:space="preserve">wait for option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//button[normalize-space()='Continue']</t>
   </si>
 </sst>
 </file>
@@ -668,7 +662,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="19:19 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -790,7 +784,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="19:19 A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1199,8 +1193,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="19:19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1532,7 +1526,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>98765</v>
+        <v>9876543210</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,8 +1737,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="19:19 E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2061,10 +2055,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="19:19 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2350,35 +2344,18 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>2000</v>
       </c>
     </row>

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId2"/>
@@ -661,18 +661,18 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="19:19 E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.237037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.137037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.9148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.2740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.9148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.5481481481482"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.4481481481482"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.9888888888889"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.3925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.9888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,7 +743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>17</v>
       </c>
@@ -784,17 +784,17 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="19:19 A16"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="131.703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="145.718518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4814814814815"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,16 +1193,15 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="19:19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.5851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5518518518518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,15 +1737,15 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="19:19 E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.4259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.4037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3666666666667"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2058,15 +2057,15 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="19:19 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.52592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.462962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.3444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="edit_form" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="allocation_individual_realtor" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="allocation_group_realtors" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="contracts" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="154">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -456,6 +457,36 @@
   </si>
   <si>
     <t xml:space="preserve">wait for option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scroll to Not Signed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//td[normalize-space()='Not Signed']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click Not Signed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click not signed entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//table[@class='table table-hover table-striped table-sm']/tbody/tr[2]/td[1]/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waiting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click Open as Sales Rep button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[normalize-space()='Open as Sales Rep']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click Sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//button[@class='btn btn-main sign-document--button'])[2]</t>
   </si>
 </sst>
 </file>
@@ -661,18 +692,18 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.5481481481482"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.4481481481482"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.9888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.3925925925926"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.9888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.6259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.5259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.6555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.4703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.6555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,17 +815,17 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="145.718518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4814814814815"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="149.440740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,15 +1224,16 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5518518518518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.7777777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.1518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,10 +1774,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.4037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.9703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,10 +2094,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.3444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.8148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,6 +2388,225 @@
       </c>
       <c r="E17" s="0" t="n">
         <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.137037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6481481481482"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36296296296296"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/Avesdo_Test_scenarios.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="165">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -487,6 +487,39 @@
   </si>
   <si>
     <t xml:space="preserve">(//button[@class='btn btn-main sign-document--button'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click check box before signing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//i[@class='fal fa-square fa-lg deselectClass']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click start signing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[@class='btn btn-main btn-sm']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//canvas[@class='canvas-pad ng-isolate-scope']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click use signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//button[@class='btn btn-main btn-sm ng-binding'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click draw signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//button[@class='btn btn-info btn-sm ng-binding'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign3</t>
   </si>
 </sst>
 </file>
@@ -692,18 +725,18 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.6259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.5259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.6555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.4703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.6555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.9777777777778"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.8777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.9888888888889"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.7222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="68.9888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,12 +853,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="149.440740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="157.281481481482"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.0740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,10 +1263,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.1518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.9925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,10 +1807,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.662962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.9703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.3"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,10 +2127,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.8148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.0481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,19 +2439,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.137037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6481481481482"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,7 +2588,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,7 +2602,7 @@
         <v>151</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>6</v>
@@ -2594,18 +2627,154 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <v>3000</v>
       </c>
     </row>
